--- a/Project Management/Team Knuth Gantt v4.xlsx
+++ b/Project Management/Team Knuth Gantt v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjep\Desktop\KF5012 Assignment\Team-Knuth\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE4F80-9C77-4428-BD32-D7CBA2FB3F88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C9883B-C779-48F6-8564-0D54FD4AFCEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="80">
   <si>
     <t>Task</t>
   </si>
@@ -489,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,6 +539,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -827,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,6 +854,8 @@
       </c>
       <c r="R1" s="24"/>
       <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O2" s="26"/>
@@ -859,6 +863,8 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
       <c r="G3" s="10" t="s">
@@ -1287,7 +1293,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="33"/>
+      <c r="U14" s="38"/>
       <c r="V14" s="32"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
@@ -1774,7 +1780,7 @@
         <v>77</v>
       </c>
       <c r="T30" s="8"/>
-      <c r="U30" s="33"/>
+      <c r="U30" s="37"/>
       <c r="V30" s="32"/>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.3">
